--- a/Time plan Sem2.xlsx
+++ b/Time plan Sem2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="26">
   <si>
     <t>Client meetings</t>
   </si>
@@ -631,7 +631,7 @@
   <dimension ref="A2:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1056,8 +1056,12 @@
       <c r="J17" s="20">
         <v>29</v>
       </c>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
+      <c r="K17" s="20">
+        <v>5</v>
+      </c>
+      <c r="L17" s="20">
+        <v>5</v>
+      </c>
       <c r="M17" s="20"/>
       <c r="N17" s="20"/>
       <c r="O17" s="20"/>
@@ -1065,7 +1069,7 @@
       <c r="Q17" s="20"/>
       <c r="R17" s="20">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">

--- a/Time plan Sem2.xlsx
+++ b/Time plan Sem2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Client meetings</t>
   </si>

--- a/Time plan Sem2.xlsx
+++ b/Time plan Sem2.xlsx
@@ -1060,7 +1060,7 @@
         <v>5</v>
       </c>
       <c r="L17" s="20">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M17" s="20"/>
       <c r="N17" s="20"/>
@@ -1069,7 +1069,7 @@
       <c r="Q17" s="20"/>
       <c r="R17" s="20">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">

--- a/Time plan Sem2.xlsx
+++ b/Time plan Sem2.xlsx
@@ -631,7 +631,7 @@
   <dimension ref="A2:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1060,7 +1060,7 @@
         <v>5</v>
       </c>
       <c r="L17" s="20">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="M17" s="20"/>
       <c r="N17" s="20"/>
@@ -1069,7 +1069,7 @@
       <c r="Q17" s="20"/>
       <c r="R17" s="20">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">

--- a/Time plan Sem2.xlsx
+++ b/Time plan Sem2.xlsx
@@ -631,7 +631,7 @@
   <dimension ref="A2:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1062,14 +1062,16 @@
       <c r="L17" s="20">
         <v>18</v>
       </c>
-      <c r="M17" s="20"/>
+      <c r="M17" s="20">
+        <v>6</v>
+      </c>
       <c r="N17" s="20"/>
       <c r="O17" s="20"/>
       <c r="P17" s="20"/>
       <c r="Q17" s="20"/>
       <c r="R17" s="20">
         <f t="shared" si="0"/>
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">

--- a/Time plan Sem2.xlsx
+++ b/Time plan Sem2.xlsx
@@ -1063,7 +1063,7 @@
         <v>18</v>
       </c>
       <c r="M17" s="20">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N17" s="20"/>
       <c r="O17" s="20"/>
@@ -1071,7 +1071,7 @@
       <c r="Q17" s="20"/>
       <c r="R17" s="20">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">

--- a/Time plan Sem2.xlsx
+++ b/Time plan Sem2.xlsx
@@ -1063,7 +1063,7 @@
         <v>18</v>
       </c>
       <c r="M17" s="20">
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="N17" s="20"/>
       <c r="O17" s="20"/>
@@ -1071,7 +1071,7 @@
       <c r="Q17" s="20"/>
       <c r="R17" s="20">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="18" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">

--- a/Time plan Sem2.xlsx
+++ b/Time plan Sem2.xlsx
@@ -631,7 +631,7 @@
   <dimension ref="A2:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1065,13 +1065,15 @@
       <c r="M17" s="20">
         <v>10.5</v>
       </c>
-      <c r="N17" s="20"/>
+      <c r="N17" s="20">
+        <v>6</v>
+      </c>
       <c r="O17" s="20"/>
       <c r="P17" s="20"/>
       <c r="Q17" s="20"/>
       <c r="R17" s="20">
         <f t="shared" si="0"/>
-        <v>94.5</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="18" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">

--- a/Time plan Sem2.xlsx
+++ b/Time plan Sem2.xlsx
@@ -1066,14 +1066,14 @@
         <v>10.5</v>
       </c>
       <c r="N17" s="20">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O17" s="20"/>
       <c r="P17" s="20"/>
       <c r="Q17" s="20"/>
       <c r="R17" s="20">
         <f t="shared" si="0"/>
-        <v>100.5</v>
+        <v>104.5</v>
       </c>
     </row>
     <row r="18" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">

--- a/Time plan Sem2.xlsx
+++ b/Time plan Sem2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>Client meetings</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>Semester 2 2016</t>
+  </si>
+  <si>
+    <t>Planned Hours Total</t>
+  </si>
+  <si>
+    <t>Actual Hours Total</t>
   </si>
 </sst>
 </file>
@@ -147,7 +153,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -249,11 +255,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -320,6 +337,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -628,10 +648,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:R32"/>
+  <dimension ref="A2:T32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -639,20 +659,21 @@
     <col min="2" max="2" width="45.28515625" customWidth="1"/>
     <col min="3" max="15" width="8.7109375" customWidth="1"/>
     <col min="18" max="18" width="8.85546875" style="17"/>
+    <col min="19" max="19" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
     </row>
-    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
         <v>8</v>
       </c>
@@ -705,8 +726,15 @@
       <c r="R6" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S6" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="T6">
+        <f>SUM(R8,R10,R12,R14,R16,R18,R20)</f>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="25"/>
       <c r="B7" s="26"/>
       <c r="C7" s="4"/>
@@ -725,8 +753,15 @@
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="19"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="T7">
+        <f>SUM(R9,R11,R13,R15,R17,R19,R21)</f>
+        <v>189.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>1</v>
       </c>
@@ -781,32 +816,60 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11"/>
       <c r="B9" s="12" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
+      <c r="D9" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="J9" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="K9" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="L9" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="M9" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="N9" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="O9" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="P9" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="Q9" s="20">
+        <v>0.5</v>
+      </c>
       <c r="R9" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>2</v>
       </c>
@@ -837,7 +900,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
       <c r="B11" s="12" t="s">
         <v>3</v>
@@ -864,7 +927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>3</v>
       </c>
@@ -897,7 +960,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
       <c r="B13" s="12" t="s">
         <v>3</v>
@@ -928,7 +991,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <v>4</v>
       </c>
@@ -963,7 +1026,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
       <c r="B15" s="12" t="s">
         <v>3</v>
@@ -994,7 +1057,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>5</v>
       </c>
@@ -1068,12 +1131,14 @@
       <c r="N17" s="20">
         <v>10</v>
       </c>
-      <c r="O17" s="20"/>
+      <c r="O17" s="20">
+        <v>5</v>
+      </c>
       <c r="P17" s="20"/>
       <c r="Q17" s="20"/>
       <c r="R17" s="20">
         <f t="shared" si="0"/>
-        <v>104.5</v>
+        <v>109.5</v>
       </c>
     </row>
     <row r="18" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
@@ -1126,12 +1191,16 @@
       <c r="L19" s="20"/>
       <c r="M19" s="20"/>
       <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
+      <c r="O19" s="20">
+        <v>7</v>
+      </c>
+      <c r="P19" s="20">
+        <v>7</v>
+      </c>
       <c r="Q19" s="20"/>
       <c r="R19" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
@@ -1184,12 +1253,16 @@
       <c r="L21" s="20"/>
       <c r="M21" s="20"/>
       <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
+      <c r="O21" s="20">
+        <v>7</v>
+      </c>
+      <c r="P21" s="20">
+        <v>8</v>
+      </c>
       <c r="Q21" s="20"/>
       <c r="R21" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
